--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -451,78 +451,78 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Skor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
-        <v>34107</v>
+        <v>27315</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>89.11193660227832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>35119</v>
+        <v>29811</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>88.95020869238081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C4" t="n">
-        <v>39211</v>
+        <v>34027</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>87.48606544543605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C5" t="n">
-        <v>34513</v>
+        <v>34107</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>87.45485856450524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
-        <v>27703</v>
+        <v>34513</v>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>87.28658929967439</v>
       </c>
     </row>
   </sheetData>

--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,72 +457,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
-        <v>27315</v>
+        <v>39211</v>
       </c>
       <c r="D2" t="n">
-        <v>89.11193660227832</v>
+        <v>89.6301602248965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>29811</v>
+        <v>38869</v>
       </c>
       <c r="D3" t="n">
-        <v>88.95020869238081</v>
+        <v>89.38095238095237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>34027</v>
+        <v>28905</v>
       </c>
       <c r="D4" t="n">
-        <v>87.48606544543605</v>
+        <v>89.18443415864621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>34107</v>
+        <v>29120</v>
       </c>
       <c r="D5" t="n">
-        <v>87.45485856450524</v>
+        <v>89.13212204996543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>34513</v>
+        <v>27315</v>
       </c>
       <c r="D6" t="n">
-        <v>87.28658929967439</v>
+        <v>89.11193660227832</v>
       </c>
     </row>
   </sheetData>
